--- a/born_died.xlsx
+++ b/born_died.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niuta\Documents\Develop\excel_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niuta\Documents\Develop\python\Lab7\miniptoject2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C5138B7-146B-431F-8BBA-BF88DEABBE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D4A1F4-D17D-4E0E-A923-F74D64957ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{8EBB257D-154B-41FA-A514-FDCE207ACE8D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8EBB257D-154B-41FA-A514-FDCE207ACE8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,191 +36,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Кількість живона-роджених, тис. осіб/Number of the liveborn, thsd</t>
+    <t>Кількість живонароджених</t>
   </si>
   <si>
-    <t>Частка дітей народжених жінками, які не перебували  у зареєстрова-ному шлюбі,  %/ Children born to women in unregistered marriage, per cent</t>
+    <t>Кількість померлих</t>
   </si>
   <si>
-    <t>Кількість померлих, тис. осіб/Number of  deaths, thsd.</t>
+    <t>Природний приріст, скорочення</t>
   </si>
   <si>
-    <t>Природний приріст, скорочення (–), тис. осіб/Natural increase in, decrease (–) population, thsd.</t>
+    <t>Міграційний приріст, скорочення</t>
   </si>
   <si>
-    <t xml:space="preserve">Міграційний приріст, скорочення (–), тис. осіб/Population migration between Ukraine and other counties Iincrease/       decrease (–) in population thsd. </t>
+    <t>Кількість зареєстрованих шлюбів</t>
   </si>
   <si>
-    <r>
-      <t>Кількість зареєст-рованих шлюбів</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, тис. одиниць/      Registered marriages, thsd.</t>
-    </r>
+    <t>Кількість зареєстрованих розірвань шлюбів</t>
   </si>
   <si>
-    <t>Кількість зареєст-рованих розірвань шлюбів, тис. одиниць/       Registered divorces, thsd.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    126,1</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2014</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2015</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2016</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2017</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2018</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2019</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2020</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2021</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2</t>
-    </r>
+    <t>Рік</t>
   </si>
 </sst>
 </file>
@@ -230,7 +66,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,31 +90,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
@@ -347,34 +159,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -387,6 +178,21 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,890 +508,791 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7D295B-822D-4FCA-9CFD-F7BF3EDB0E6C}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H34"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1990</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="2">
         <v>657.2</v>
       </c>
-      <c r="C3" s="6">
-        <v>11.2</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3" s="2">
         <v>629.6</v>
       </c>
-      <c r="E3" s="6">
+      <c r="D3" s="2">
         <v>27.6</v>
       </c>
-      <c r="F3" s="6">
+      <c r="E3" s="2">
         <v>78.3</v>
       </c>
-      <c r="G3" s="6">
+      <c r="F3" s="2">
         <v>482.8</v>
       </c>
-      <c r="H3" s="6">
+      <c r="G3" s="2">
         <v>192.8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>1991</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="2">
         <v>630.79999999999995</v>
       </c>
-      <c r="C4" s="6">
-        <v>11.9</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" s="2">
         <v>669.9</v>
       </c>
-      <c r="E4" s="6">
+      <c r="D4" s="2">
         <v>-39.1</v>
       </c>
-      <c r="F4" s="6">
+      <c r="E4" s="2">
         <v>151.30000000000001</v>
       </c>
-      <c r="G4" s="6">
+      <c r="F4" s="2">
         <v>493.1</v>
       </c>
-      <c r="H4" s="6">
+      <c r="G4" s="2">
         <v>200.8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>1992</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="2">
         <v>596.79999999999995</v>
       </c>
-      <c r="C5" s="6">
-        <v>12.1</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" s="2">
         <v>697.1</v>
       </c>
-      <c r="E5" s="6">
+      <c r="D5" s="2">
         <v>-100.3</v>
       </c>
-      <c r="F5" s="6">
+      <c r="E5" s="2">
         <v>287.8</v>
       </c>
-      <c r="G5" s="6">
+      <c r="F5" s="2">
         <v>394.1</v>
       </c>
-      <c r="H5" s="6">
+      <c r="G5" s="2">
         <v>222.6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>1993</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="2">
         <v>557.5</v>
       </c>
-      <c r="C6" s="6">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" s="2">
         <v>741.7</v>
       </c>
-      <c r="E6" s="6">
+      <c r="D6" s="2">
         <v>-184.2</v>
       </c>
-      <c r="F6" s="6">
+      <c r="E6" s="2">
         <v>54.5</v>
       </c>
-      <c r="G6" s="6">
+      <c r="F6" s="2">
         <v>427.9</v>
       </c>
-      <c r="H6" s="6">
+      <c r="G6" s="2">
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>1994</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="2">
         <v>521.6</v>
       </c>
-      <c r="C7" s="6">
-        <v>12.8</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="2">
         <v>764.7</v>
       </c>
-      <c r="E7" s="6">
+      <c r="D7" s="2">
         <v>-243.1</v>
       </c>
-      <c r="F7" s="6">
+      <c r="E7" s="2">
         <v>-142.9</v>
       </c>
-      <c r="G7" s="6">
+      <c r="F7" s="2">
         <v>399.2</v>
       </c>
-      <c r="H7" s="6">
+      <c r="G7" s="2">
         <v>207.6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>1995</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="2">
         <v>492.9</v>
       </c>
-      <c r="C8" s="6">
-        <v>13.2</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="2">
         <v>792.6</v>
       </c>
-      <c r="E8" s="6">
+      <c r="D8" s="2">
         <v>-299.7</v>
       </c>
-      <c r="F8" s="6">
+      <c r="E8" s="2">
         <v>-131.6</v>
       </c>
-      <c r="G8" s="6">
+      <c r="F8" s="2">
         <v>431.7</v>
       </c>
-      <c r="H8" s="6">
+      <c r="G8" s="2">
         <v>198.3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>1996</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="2">
         <v>467.2</v>
       </c>
-      <c r="C9" s="6">
-        <v>13.6</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" s="2">
         <v>776.7</v>
       </c>
-      <c r="E9" s="6">
+      <c r="D9" s="2">
         <v>-309.5</v>
       </c>
-      <c r="F9" s="6">
+      <c r="E9" s="2">
         <v>-169.2</v>
       </c>
-      <c r="G9" s="6">
+      <c r="F9" s="2">
         <v>307.5</v>
       </c>
-      <c r="H9" s="6">
+      <c r="G9" s="2">
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>1997</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="2">
         <v>442.6</v>
       </c>
-      <c r="C10" s="6">
-        <v>15.2</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="2">
         <v>754.2</v>
       </c>
-      <c r="E10" s="6">
+      <c r="D10" s="2">
         <v>-311.60000000000002</v>
       </c>
-      <c r="F10" s="6">
+      <c r="E10" s="2">
         <v>-136</v>
       </c>
-      <c r="G10" s="6">
+      <c r="F10" s="2">
         <v>345</v>
       </c>
-      <c r="H10" s="6">
+      <c r="G10" s="2">
         <v>188.2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>1998</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="2">
         <v>419.2</v>
       </c>
-      <c r="C11" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="2">
         <v>719.9</v>
       </c>
-      <c r="E11" s="6">
+      <c r="D11" s="2">
         <v>-300.7</v>
       </c>
-      <c r="F11" s="6">
+      <c r="E11" s="2">
         <v>-152</v>
       </c>
-      <c r="G11" s="6">
+      <c r="F11" s="2">
         <v>310.5</v>
       </c>
-      <c r="H11" s="6">
+      <c r="G11" s="2">
         <v>179.7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>1999</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="2">
         <v>389.2</v>
       </c>
-      <c r="C12" s="6">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="C12" s="2">
         <v>739.2</v>
       </c>
-      <c r="E12" s="6">
+      <c r="D12" s="2">
         <v>-350</v>
       </c>
-      <c r="F12" s="6">
+      <c r="E12" s="2">
         <v>-138.30000000000001</v>
       </c>
-      <c r="G12" s="6">
+      <c r="F12" s="2">
         <v>344.9</v>
       </c>
-      <c r="H12" s="6">
+      <c r="G12" s="2">
         <v>175.8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>2000</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="2">
         <v>385.1</v>
       </c>
-      <c r="C13" s="6">
-        <v>17.3</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="C13" s="2">
         <v>758.1</v>
       </c>
-      <c r="E13" s="6">
+      <c r="D13" s="2">
         <v>-373</v>
       </c>
-      <c r="F13" s="6">
+      <c r="E13" s="2">
         <v>-133.6</v>
       </c>
-      <c r="G13" s="6">
+      <c r="F13" s="2">
         <v>274.5</v>
       </c>
-      <c r="H13" s="6">
+      <c r="G13" s="2">
         <v>197.3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>2001</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="2">
         <v>376.5</v>
       </c>
-      <c r="C14" s="6">
-        <v>18</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" s="2">
         <v>746</v>
       </c>
-      <c r="E14" s="6">
+      <c r="D14" s="2">
         <v>-369.5</v>
       </c>
-      <c r="F14" s="6">
+      <c r="E14" s="2">
         <v>-152.19999999999999</v>
       </c>
-      <c r="G14" s="6">
+      <c r="F14" s="2">
         <v>309.60000000000002</v>
       </c>
-      <c r="H14" s="6">
+      <c r="G14" s="2">
         <v>181.3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>2002</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="2">
         <v>390.7</v>
       </c>
-      <c r="C15" s="6">
-        <v>19</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" s="2">
         <v>754.9</v>
       </c>
-      <c r="E15" s="6">
+      <c r="D15" s="2">
         <v>-364.2</v>
       </c>
-      <c r="F15" s="6">
+      <c r="E15" s="2">
         <v>-33.799999999999997</v>
       </c>
-      <c r="G15" s="6">
+      <c r="F15" s="2">
         <v>317.2</v>
       </c>
-      <c r="H15" s="6">
+      <c r="G15" s="2">
         <v>183.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>2003</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="2">
         <v>408.6</v>
       </c>
-      <c r="C16" s="6">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C16" s="2">
         <v>765.4</v>
       </c>
-      <c r="E16" s="6">
+      <c r="D16" s="2">
         <v>-356.8</v>
       </c>
-      <c r="F16" s="6">
+      <c r="E16" s="2">
         <v>-24.2</v>
       </c>
-      <c r="G16" s="6">
+      <c r="F16" s="2">
         <v>371</v>
       </c>
-      <c r="H16" s="6">
+      <c r="G16" s="2">
         <v>177.2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>2004</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="2">
         <v>427.3</v>
       </c>
-      <c r="C17" s="6">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" s="2">
         <v>761.3</v>
       </c>
-      <c r="E17" s="6">
+      <c r="D17" s="2">
         <v>-334</v>
       </c>
-      <c r="F17" s="6">
+      <c r="E17" s="2">
         <v>-7.6</v>
       </c>
-      <c r="G17" s="6">
+      <c r="F17" s="2">
         <v>278.2</v>
       </c>
-      <c r="H17" s="6">
+      <c r="G17" s="2">
         <v>173.2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>2005</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="2">
         <v>426.1</v>
       </c>
-      <c r="C18" s="6">
-        <v>21.4</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="C18" s="2">
         <v>782</v>
       </c>
-      <c r="E18" s="6">
+      <c r="D18" s="2">
         <v>-355.9</v>
       </c>
-      <c r="F18" s="6">
+      <c r="E18" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G18" s="6">
+      <c r="F18" s="2">
         <v>332.1</v>
       </c>
-      <c r="H18" s="6">
+      <c r="G18" s="2">
         <v>183.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>2006</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="2">
         <v>460.4</v>
       </c>
-      <c r="C19" s="6">
-        <v>21.1</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C19" s="2">
         <v>758.1</v>
       </c>
-      <c r="E19" s="6">
+      <c r="D19" s="2">
         <v>-297.7</v>
       </c>
-      <c r="F19" s="6">
+      <c r="E19" s="2">
         <v>14.2</v>
       </c>
-      <c r="G19" s="6">
+      <c r="F19" s="2">
         <v>355</v>
       </c>
-      <c r="H19" s="6">
+      <c r="G19" s="2">
         <v>179.1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>2007</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="2">
         <v>472.7</v>
       </c>
-      <c r="C20" s="6">
-        <v>21.4</v>
-      </c>
-      <c r="D20" s="6">
+      <c r="C20" s="2">
         <v>762.9</v>
       </c>
-      <c r="E20" s="6">
+      <c r="D20" s="2">
         <v>-290.2</v>
       </c>
-      <c r="F20" s="6">
+      <c r="E20" s="2">
         <v>16.8</v>
       </c>
-      <c r="G20" s="6">
+      <c r="F20" s="2">
         <v>416.4</v>
       </c>
-      <c r="H20" s="6">
+      <c r="G20" s="2">
         <v>178.4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>2008</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="2">
         <v>510.6</v>
       </c>
-      <c r="C21" s="6">
-        <v>20.9</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="C21" s="2">
         <v>754.5</v>
       </c>
-      <c r="E21" s="6">
+      <c r="D21" s="2">
         <v>-243.9</v>
       </c>
-      <c r="F21" s="6">
+      <c r="E21" s="2">
         <v>14.9</v>
       </c>
-      <c r="G21" s="6">
+      <c r="F21" s="2">
         <v>322</v>
       </c>
-      <c r="H21" s="6">
+      <c r="G21" s="2">
         <v>166.8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>2009</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="2">
         <v>512.5</v>
       </c>
-      <c r="C22" s="6">
-        <v>21.2</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="C22" s="2">
         <v>706.7</v>
       </c>
-      <c r="E22" s="6">
+      <c r="D22" s="2">
         <v>-194.2</v>
       </c>
-      <c r="F22" s="6">
+      <c r="E22" s="2">
         <v>13.4</v>
       </c>
-      <c r="G22" s="6">
+      <c r="F22" s="2">
         <v>318.2</v>
       </c>
-      <c r="H22" s="6">
+      <c r="G22" s="2">
         <v>145.4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>2010</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="2">
         <v>497.7</v>
       </c>
-      <c r="C23" s="6">
-        <v>21.9</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="C23" s="2">
         <v>698.2</v>
       </c>
-      <c r="E23" s="6">
+      <c r="D23" s="2">
         <v>-200.5</v>
       </c>
-      <c r="F23" s="6">
+      <c r="E23" s="2">
         <v>16.100000000000001</v>
       </c>
-      <c r="G23" s="6">
+      <c r="F23" s="2">
         <v>305.89999999999998</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="G23" s="11">
+        <v>126.11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>2011</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="2">
         <v>502.6</v>
       </c>
-      <c r="C24" s="6">
-        <v>21.9</v>
-      </c>
-      <c r="D24" s="6">
+      <c r="C24" s="2">
         <v>664.6</v>
       </c>
-      <c r="E24" s="6">
+      <c r="D24" s="2">
         <v>-162</v>
       </c>
-      <c r="F24" s="6">
+      <c r="E24" s="2">
         <v>17.100000000000001</v>
       </c>
-      <c r="G24" s="6">
+      <c r="F24" s="2">
         <v>355.9</v>
       </c>
-      <c r="H24" s="6">
+      <c r="G24" s="2">
         <v>182.5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>2012</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="2">
         <v>520.70000000000005</v>
       </c>
-      <c r="C25" s="6">
-        <v>21.4</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="C25" s="2">
         <v>663.1</v>
       </c>
-      <c r="E25" s="6">
+      <c r="D25" s="2">
         <v>-142.4</v>
       </c>
-      <c r="F25" s="6">
+      <c r="E25" s="2">
         <v>61.8</v>
       </c>
-      <c r="G25" s="6">
+      <c r="F25" s="2">
         <v>278.3</v>
       </c>
-      <c r="H25" s="6">
+      <c r="G25" s="2">
         <v>168.5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>2013</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="2">
         <v>503.7</v>
       </c>
-      <c r="C26" s="6">
-        <v>22.1</v>
-      </c>
-      <c r="D26" s="6">
+      <c r="C26" s="2">
         <v>662.4</v>
       </c>
-      <c r="E26" s="6">
+      <c r="D26" s="2">
         <v>-158.69999999999999</v>
       </c>
-      <c r="F26" s="6">
+      <c r="E26" s="2">
         <v>31.9</v>
       </c>
-      <c r="G26" s="6">
+      <c r="F26" s="2">
         <v>304.2</v>
       </c>
-      <c r="H26" s="6">
+      <c r="G26" s="2">
         <v>164.9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="6">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B27" s="2">
         <v>465.9</v>
       </c>
-      <c r="C27" s="6">
-        <v>21.1</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="C27" s="2">
         <v>632.29999999999995</v>
       </c>
-      <c r="E27" s="6">
+      <c r="D27" s="2">
         <v>-166.4</v>
       </c>
-      <c r="F27" s="6">
+      <c r="E27" s="2">
         <v>22.6</v>
       </c>
-      <c r="G27" s="6">
+      <c r="F27" s="2">
         <v>295</v>
       </c>
-      <c r="H27" s="6">
+      <c r="G27" s="2">
         <v>130.69999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="6">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B28" s="2">
         <v>411.8</v>
       </c>
-      <c r="C28" s="6">
-        <v>20.6</v>
-      </c>
-      <c r="D28" s="6">
+      <c r="C28" s="2">
         <v>594.79999999999995</v>
       </c>
-      <c r="E28" s="6">
+      <c r="D28" s="2">
         <v>-183</v>
       </c>
-      <c r="F28" s="6">
+      <c r="E28" s="2">
         <v>14.2</v>
       </c>
-      <c r="G28" s="6">
+      <c r="F28" s="2">
         <v>299</v>
       </c>
-      <c r="H28" s="6">
+      <c r="G28" s="2">
         <v>129.4</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="10">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B29" s="3">
         <v>397</v>
       </c>
-      <c r="C29" s="10">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="D29" s="10">
+      <c r="C29" s="3">
         <v>583.6</v>
       </c>
-      <c r="E29" s="10">
+      <c r="D29" s="3">
         <v>-186.6</v>
       </c>
-      <c r="F29" s="10">
+      <c r="E29" s="3">
         <v>10.6</v>
       </c>
-      <c r="G29" s="10">
+      <c r="F29" s="3">
         <v>229.5</v>
       </c>
-      <c r="H29" s="10">
+      <c r="G29" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="6">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B30" s="2">
         <v>364</v>
       </c>
-      <c r="C30" s="6">
-        <v>20.5</v>
-      </c>
-      <c r="D30" s="6">
+      <c r="C30" s="2">
         <v>574.1</v>
       </c>
-      <c r="E30" s="6">
+      <c r="D30" s="2">
         <v>-210.1</v>
       </c>
-      <c r="F30" s="6">
+      <c r="E30" s="2">
         <v>12</v>
       </c>
-      <c r="G30" s="6">
+      <c r="F30" s="2">
         <v>249.5</v>
       </c>
-      <c r="H30" s="6">
+      <c r="G30" s="2">
         <v>128.69999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="11">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B31" s="4">
         <v>335.9</v>
       </c>
-      <c r="C31" s="11">
-        <v>20.5</v>
-      </c>
-      <c r="D31" s="11">
+      <c r="C31" s="4">
         <v>587.70000000000005</v>
       </c>
-      <c r="E31" s="11">
+      <c r="D31" s="4">
         <v>-251.8</v>
       </c>
-      <c r="F31" s="11">
+      <c r="E31" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="G31" s="11">
+      <c r="F31" s="4">
         <v>228.4</v>
       </c>
-      <c r="H31" s="11">
+      <c r="G31" s="4">
         <v>153.9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="12">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B32" s="5">
         <v>308.8</v>
       </c>
-      <c r="C32" s="12">
-        <v>20.5</v>
-      </c>
-      <c r="D32" s="12">
+      <c r="C32" s="5">
         <v>581.1</v>
       </c>
-      <c r="E32" s="11">
+      <c r="D32" s="4">
         <v>-272.3</v>
       </c>
-      <c r="F32" s="11">
+      <c r="E32" s="4">
         <v>21.5</v>
       </c>
-      <c r="G32" s="13">
+      <c r="F32" s="6">
         <v>237.9</v>
       </c>
-      <c r="H32" s="13">
+      <c r="G32" s="6">
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="12">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B33" s="5">
         <v>293.39999999999998</v>
       </c>
-      <c r="C33" s="12">
-        <v>20.5</v>
-      </c>
-      <c r="D33" s="12">
+      <c r="C33" s="5">
         <v>616.79999999999995</v>
       </c>
-      <c r="E33" s="11">
+      <c r="D33" s="4">
         <v>-323.39999999999998</v>
       </c>
-      <c r="F33" s="11">
+      <c r="E33" s="4">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G33" s="13">
+      <c r="F33" s="6">
         <v>168</v>
       </c>
-      <c r="H33" s="13">
+      <c r="G33" s="6">
         <v>119.8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="13">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B34" s="6">
         <v>272</v>
       </c>
-      <c r="C34" s="12">
-        <v>20.5</v>
-      </c>
-      <c r="D34" s="12">
+      <c r="C34" s="5">
         <v>714.3</v>
       </c>
-      <c r="E34" s="12">
+      <c r="D34" s="5">
         <v>-442.3</v>
       </c>
-      <c r="F34" s="12">
+      <c r="E34" s="5">
         <v>21.3</v>
       </c>
-      <c r="G34" s="13">
+      <c r="F34" s="6">
         <v>214</v>
       </c>
-      <c r="H34" s="13">
+      <c r="G34" s="6">
         <v>121.4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
